--- a/pur_inv.xlsx
+++ b/pur_inv.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="74">
   <si>
     <t>f-001</t>
   </si>
@@ -219,22 +219,25 @@
     <t>S4</t>
   </si>
   <si>
-    <t>I11</t>
-  </si>
-  <si>
     <t>SR1</t>
   </si>
   <si>
     <t>Somayaji</t>
   </si>
   <si>
-    <t>28.11.2020</t>
-  </si>
-  <si>
-    <t>nill</t>
+    <t>NILL</t>
   </si>
   <si>
     <t>INV-132</t>
+  </si>
+  <si>
+    <t>28.11.20</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>25.02.2021</t>
   </si>
 </sst>
 </file>
@@ -1072,10 +1075,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1505,58 +1508,58 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>38</v>
       </c>
       <c r="I8" s="3">
-        <v>25200</v>
+        <v>300</v>
       </c>
       <c r="J8" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>8450</v>
+        <v>350</v>
       </c>
       <c r="L8" s="3">
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3">
-        <v>5450</v>
+        <v>0</v>
       </c>
       <c r="O8" s="3">
-        <v>3250</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
       <c r="R8" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
@@ -1564,58 +1567,58 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>38</v>
       </c>
       <c r="I9" s="3">
-        <v>104000</v>
+        <v>25200</v>
       </c>
       <c r="J9" s="3">
-        <v>5800</v>
+        <v>900</v>
       </c>
       <c r="K9" s="3">
-        <v>18000</v>
+        <v>8450</v>
       </c>
       <c r="L9" s="3">
-        <v>5000</v>
+        <v>3300</v>
       </c>
       <c r="M9" s="3">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="N9" s="3">
-        <v>12600</v>
+        <v>5450</v>
       </c>
       <c r="O9" s="3">
-        <v>10000</v>
+        <v>3250</v>
       </c>
       <c r="P9" s="3">
+        <v>50</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
         <v>600</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-      <c r="R9" s="3">
-        <v>100</v>
       </c>
       <c r="S9" s="3">
         <v>0</v>
@@ -1623,58 +1626,58 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>38</v>
       </c>
       <c r="I10" s="3">
-        <v>351800</v>
+        <v>104000</v>
       </c>
       <c r="J10" s="3">
-        <v>7900</v>
+        <v>5800</v>
       </c>
       <c r="K10" s="3">
-        <v>51600</v>
+        <v>18000</v>
       </c>
       <c r="L10" s="3">
-        <v>18750</v>
+        <v>5000</v>
       </c>
       <c r="M10" s="3">
-        <v>3550</v>
+        <v>2500</v>
       </c>
       <c r="N10" s="3">
-        <v>38000</v>
+        <v>12600</v>
       </c>
       <c r="O10" s="3">
-        <v>20450</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="3">
-        <v>950</v>
+        <v>600</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
       </c>
       <c r="R10" s="3">
-        <v>2050</v>
+        <v>100</v>
       </c>
       <c r="S10" s="3">
         <v>0</v>
@@ -1682,121 +1685,124 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="2">
-        <v>109100</v>
-      </c>
-      <c r="J11" s="2">
-        <v>2800</v>
-      </c>
-      <c r="K11" s="2">
-        <v>18900</v>
-      </c>
-      <c r="L11" s="2">
-        <v>5200</v>
-      </c>
-      <c r="M11" s="2">
-        <v>1500</v>
-      </c>
-      <c r="N11" s="2">
-        <v>13100</v>
-      </c>
-      <c r="O11" s="2">
-        <v>6700</v>
-      </c>
-      <c r="P11" s="2">
-        <v>150</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>0</v>
-      </c>
-      <c r="R11" s="2">
-        <v>1550</v>
-      </c>
-      <c r="S11" s="2">
+      <c r="I11" s="3">
+        <v>351800</v>
+      </c>
+      <c r="J11" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K11" s="3">
+        <v>51600</v>
+      </c>
+      <c r="L11" s="3">
+        <v>18750</v>
+      </c>
+      <c r="M11" s="3">
+        <v>3550</v>
+      </c>
+      <c r="N11" s="3">
+        <v>38000</v>
+      </c>
+      <c r="O11" s="3">
+        <v>20450</v>
+      </c>
+      <c r="P11" s="3">
+        <v>950</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0</v>
+      </c>
+      <c r="R11" s="3">
+        <v>2050</v>
+      </c>
+      <c r="S11" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>38</v>
       </c>
       <c r="I12" s="2">
-        <v>300</v>
+        <v>109100</v>
       </c>
       <c r="J12" s="2">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="K12" s="2">
-        <v>350</v>
+        <v>18900</v>
       </c>
       <c r="L12" s="2">
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="M12" s="2">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="N12" s="2">
-        <v>0</v>
+        <v>13100</v>
       </c>
       <c r="O12" s="2">
-        <v>0</v>
+        <v>6700</v>
       </c>
       <c r="P12" s="2">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="Q12" s="2">
         <v>0</v>
       </c>
       <c r="R12" s="2">
-        <v>0</v>
+        <v>1550</v>
       </c>
       <c r="S12" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="9:9">
-      <c r="I18" s="1"/>
+    <row r="19" spans="9:9">
+      <c r="I19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
